--- a/Documentacion/PCDS/PLANTILLA LEAN CANVAS - .xlsx
+++ b/Documentacion/PCDS/PLANTILLA LEAN CANVAS - .xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bodega-Madyson\Documentacion\PCDS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6060"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>MODELO DE NEGOCIO CANVAS</t>
   </si>
@@ -59,11 +64,38 @@
   <si>
     <t>Responsable del grupo:</t>
   </si>
+  <si>
+    <t>A quien va dirigido mi sistema . Si es un videojuego, decir para quien va ser ese producto, solo este videojuego sera para sjm. (DELIMITAR)</t>
+  </si>
+  <si>
+    <t>Me tengo que vender. Porque me deberian de comprar mi sistema o usarlo. (UNA PROPUESTA)</t>
+  </si>
+  <si>
+    <t>Como se va distribuir mi sistema. -mediante la web. Publicidad de youtube, fb, etc. Por una exposicion</t>
+  </si>
+  <si>
+    <t>Como voy a generar una relacion con mis cliente. De que manera.</t>
+  </si>
+  <si>
+    <t>Como voy a capitalizar mi sisteama, o por membresia, por locencia mensual, por so, etc.</t>
+  </si>
+  <si>
+    <t>La programacion y la difusion o cominunicacion de mi sistema</t>
+  </si>
+  <si>
+    <t>Todo lo que usare para llevar a cabo este proyecto .que se usará Area de marketing</t>
+  </si>
+  <si>
+    <t>AlIANZAS CLAVE , buscar un sponsor. Con una empresa o una asociacion de MIPEs</t>
+  </si>
+  <si>
+    <t>Los costos, los presupuestos, cuanto pagare, el tiempo que usaré.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,39 +200,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,8 +217,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,63 +1212,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1268,10 +1297,10 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1292,38 +1321,38 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>10</v>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="9" t="s">
-        <v>10</v>
+      <c r="J7" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="8" t="s">
-        <v>10</v>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="3" t="s">
-        <v>10</v>
+      <c r="S7" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
@@ -1334,20 +1363,20 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
@@ -1358,20 +1387,20 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
@@ -1382,20 +1411,20 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
@@ -1406,20 +1435,20 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -1430,20 +1459,20 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
@@ -1454,20 +1483,20 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
@@ -1478,20 +1507,20 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
@@ -1502,20 +1531,20 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
     <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
@@ -1526,100 +1555,100 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
-        <v>10</v>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="8" t="s">
-        <v>10</v>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
@@ -1630,20 +1659,20 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
@@ -1654,20 +1683,20 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
@@ -1678,20 +1707,20 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
@@ -1702,20 +1731,20 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
@@ -1726,20 +1755,20 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
@@ -1750,20 +1779,20 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -1774,20 +1803,20 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
     </row>
     <row r="27" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
@@ -1798,89 +1827,89 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
     </row>
     <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>10</v>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8" t="s">
-        <v>10</v>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2159,13 +2188,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B7:E27"/>
-    <mergeCell ref="F5:I6"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="F7:I16"/>
-    <mergeCell ref="F19:I27"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="S5:W6"/>
@@ -2182,6 +2204,13 @@
     <mergeCell ref="O19:R27"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B5:E6"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B7:E27"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="F7:I16"/>
+    <mergeCell ref="F19:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
